--- a/Documentation/userstories.xlsx
+++ b/Documentation/userstories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documents\mediacollege\bewijzenmap\periode1.4\proj\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{85D065EA-1C24-4250-9D45-DDDA0D353D9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B7B76709-B842-42BD-B682-43EB6F830B26}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{85D065EA-1C24-4250-9D45-DDDA0D353D9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9E2740E5-5542-49E1-BBB2-08E53F0068C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6A86A79-3F6C-4610-A596-1A08B4BF77E1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="52">
   <si>
     <t>Als</t>
   </si>
@@ -154,13 +154,46 @@
   </si>
   <si>
     <t>meer van de artiest af weet.</t>
+  </si>
+  <si>
+    <t>wil achtergrond informatie weten van de artiest</t>
+  </si>
+  <si>
+    <t>weet hoe de artiest begon</t>
+  </si>
+  <si>
+    <t>contact informatie site beheerder</t>
+  </si>
+  <si>
+    <t>fouten kan corrigeren van de author</t>
+  </si>
+  <si>
+    <t>Beheerder</t>
+  </si>
+  <si>
+    <t>Should</t>
+  </si>
+  <si>
+    <t>niet alles in de code hoeven te veranderen</t>
+  </si>
+  <si>
+    <t>een makkelijker leven heb</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>dat tweets van de artiest meteen op de "News" tab komen</t>
+  </si>
+  <si>
+    <t>het niet in de code hoef aan te passen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +208,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +262,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -248,6 +300,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,8 +314,8 @@
   <colors>
     <mruColors>
       <color rgb="FF0005C0"/>
+      <color rgb="FFE45A5A"/>
       <color rgb="FFB48D2A"/>
-      <color rgb="FFE45A5A"/>
       <color rgb="FF8082CA"/>
     </mruColors>
   </colors>
@@ -573,7 +630,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +682,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -637,16 +694,16 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="3"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -658,16 +715,16 @@
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -679,16 +736,16 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -700,16 +757,16 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="13"/>
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -721,57 +778,128 @@
       <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="5"/>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="5"/>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="10"/>
       <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
       <c r="H11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="H12" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
       <c r="H14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
       <c r="H15" t="s">
         <v>26</v>
       </c>
